--- a/data/trans_bre/P08_2_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P08_2_R-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.359193942961631</v>
+        <v>5.38331236284541</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.088587073856509</v>
+        <v>6.07099845232968</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.23142629836348</v>
+        <v>5.338211206966656</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.140261981189875</v>
+        <v>1.568162470799813</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3290477961899008</v>
+        <v>0.3271515518471554</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.327260969653465</v>
+        <v>0.3274069402765492</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2996671005483647</v>
+        <v>0.2952248886709141</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.06275689217690247</v>
+        <v>0.08182434058810624</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.34772505793514</v>
+        <v>13.34465496047079</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.03614720427756</v>
+        <v>14.65065297345574</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.19107904609902</v>
+        <v>14.29853681328771</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.641325620061767</v>
+        <v>8.966124221741879</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.112917673581503</v>
+        <v>1.097876347248669</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.056501029036859</v>
+        <v>1.010916417451392</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.041786682984946</v>
+        <v>1.052005276045703</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.595395199921692</v>
+        <v>0.6037141563877925</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.6922374754742472</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.8658366527439414</v>
+        <v>0.8658366527439415</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.689599322932835</v>
+        <v>6.434521462792244</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.074018396263787</v>
+        <v>5.31566097873861</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.260379853140187</v>
+        <v>6.498227164199331</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.193338419955349</v>
+        <v>7.770425093403512</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4299424358247254</v>
+        <v>0.4437855441496978</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2786068586487511</v>
+        <v>0.2914030897260707</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4007105000134014</v>
+        <v>0.3990884531598501</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5197920585551055</v>
+        <v>0.568535353194863</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.75216358290956</v>
+        <v>13.54872438589589</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.31221671050248</v>
+        <v>12.69829229294798</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.19624273619352</v>
+        <v>13.5269390058247</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13.05088553329267</v>
+        <v>13.12547141704563</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.211105598961199</v>
+        <v>1.179677104566982</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8276345102138459</v>
+        <v>0.8851390325515588</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.043010969338496</v>
+        <v>1.045568250795154</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.242910902163564</v>
+        <v>1.259046799466571</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.00516803418435</v>
+        <v>4.479531613770671</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.092272662237244</v>
+        <v>6.585099219549995</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.420774212156902</v>
+        <v>3.280123828357502</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6394883546575217</v>
+        <v>0.890459349718308</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2814159959359431</v>
+        <v>0.2564468721531402</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3964703688756432</v>
+        <v>0.4467600551700822</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1980503686082642</v>
+        <v>0.2004979720271992</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.03061179566878262</v>
+        <v>0.04470533203355686</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.74680789925039</v>
+        <v>13.40743545325382</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.53859487304417</v>
+        <v>14.70312512725164</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.68204841183141</v>
+        <v>11.28754177502687</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.057519443149099</v>
+        <v>8.10824828920782</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.034114186398472</v>
+        <v>0.9935815925177742</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.331461754346338</v>
+        <v>1.381876917978798</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9585673517173789</v>
+        <v>0.9141129144474995</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.539966068728477</v>
+        <v>0.5352467725560675</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>6.398460109684051</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9.266397451169892</v>
+        <v>9.266397451169887</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.631202820457443</v>
@@ -949,7 +949,7 @@
         <v>0.4455739014525101</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.6288381983306173</v>
+        <v>0.6288381983306169</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.081467170370954</v>
+        <v>5.424918610452656</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.930440946047421</v>
+        <v>7.160405377680575</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.931557231634325</v>
+        <v>2.900906127014092</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.204721895395411</v>
+        <v>6.033593870404359</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3152106762975702</v>
+        <v>0.3432542034467131</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3612087058524565</v>
+        <v>0.3774257969941308</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1762640631444251</v>
+        <v>0.1753878711294211</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3807332539993878</v>
+        <v>0.3595659733308484</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.09102411887532</v>
+        <v>12.35664502007409</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.28082688641412</v>
+        <v>14.55256700441151</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.1712066506133</v>
+        <v>9.860202186574202</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.03644862214792</v>
+        <v>12.23022875636474</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9541945138119418</v>
+        <v>0.9829594085898251</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9466017567146957</v>
+        <v>1.006037844100063</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7547815274712487</v>
+        <v>0.7574290556737422</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9151866302370665</v>
+        <v>0.9245944533890675</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>8.320451130508893</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.768964744570495</v>
+        <v>7.768964744570492</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6693104238200496</v>
@@ -1049,7 +1049,7 @@
         <v>0.5740574334782713</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.518629587188981</v>
+        <v>0.5186295871889809</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.439256752469781</v>
+        <v>7.54389862013191</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.197892889168376</v>
+        <v>8.186816755017551</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.286797378249366</v>
+        <v>6.36320138456722</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.159393598637308</v>
+        <v>6.148351841095705</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5049679638979461</v>
+        <v>0.508935301614335</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4944075712334139</v>
+        <v>0.499052479501356</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4075982669825868</v>
+        <v>0.4104967974531798</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3858316329503525</v>
+        <v>0.377152670873785</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.00858886029151</v>
+        <v>11.2264377045655</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.1392680499144</v>
+        <v>12.13153796160056</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.14693866133634</v>
+        <v>10.13705457835341</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.369227627359281</v>
+        <v>9.506548938008823</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8468909272518287</v>
+        <v>0.8542660554737598</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8223764634239844</v>
+        <v>0.827536058924621</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.745875438867125</v>
+        <v>0.732978808267177</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6677447195892574</v>
+        <v>0.6669315453576884</v>
       </c>
     </row>
     <row r="19">
